--- a/Documents/ChainLen.xlsx
+++ b/Documents/ChainLen.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\AutoTractor\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="10515" windowHeight="8760"/>
+    <workbookView xWindow="1815" yWindow="75" windowWidth="10515" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,6 +83,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -125,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -160,7 +168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,6 +419,74 @@
       <c r="E2">
         <f>A2*C2+B2*D2</f>
         <v>20.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A6</f>
+        <v>1.5</v>
+      </c>
+      <c r="B8">
+        <f>A8+B6</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+B8</f>
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>B8+B6</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A12" si="0">A9+B9</f>
+        <v>10.5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B12" si="1">B9+B7</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+B11</f>
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <f>B11+B9</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+B12</f>
+        <v>39.5</v>
+      </c>
+      <c r="B13">
+        <f>B12+B10</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
